--- a/datatable/dieluaching.xlsx
+++ b/datatable/dieluaching.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Colum" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Status-Auto" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="295">
   <si>
     <t>Controller</t>
   </si>
@@ -797,13 +797,121 @@
   </si>
   <si>
     <t>x: ẩn   o: hiện</t>
+  </si>
+  <si>
+    <t>OnProgress</t>
+  </si>
+  <si>
+    <t>OnTime</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Earlier</t>
+  </si>
+  <si>
+    <t>Target_OK &gt; Today + 10</t>
+  </si>
+  <si>
+    <t>At least another 10days will meet Target OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA OK/RS/WMT &amp;&amp; FA result Date = Target OK </t>
+  </si>
+  <si>
+    <t>FA OK/RS/WMT &amp;&amp; FA result Date later than Target</t>
+  </si>
+  <si>
+    <t>FA OK/RS/WMT &amp;&amp; FA result Date sooner than Target</t>
+  </si>
+  <si>
+    <t>NY FA or FA NG/NGA/NGB/PE1/MQA/PQA/PAE &amp;&amp; today already pass Target OK</t>
+  </si>
+  <si>
+    <t>Within 10days left will meet target OK</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>FA Result</t>
+  </si>
+  <si>
+    <t>Date Compare</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>FA Not OK</t>
+  </si>
+  <si>
+    <t>Waring</t>
+  </si>
+  <si>
+    <t>Today &lt;= target OK &lt;= today +10</t>
+  </si>
+  <si>
+    <t>Today &gt; target OK</t>
+  </si>
+  <si>
+    <t>? Day</t>
+  </si>
+  <si>
+    <t>taget -today</t>
+  </si>
+  <si>
+    <t>today - taget</t>
+  </si>
+  <si>
+    <t>FA OK</t>
+  </si>
+  <si>
+    <t>Target OK &gt; Result Date</t>
+  </si>
+  <si>
+    <t>Target OK  = Result Date</t>
+  </si>
+  <si>
+    <t>Target OK  &lt;  Result Date</t>
+  </si>
+  <si>
+    <t>taget - Result Date</t>
+  </si>
+  <si>
+    <t>Result Date - Target</t>
+  </si>
+  <si>
+    <t>NY input Taget OK Date</t>
+  </si>
+  <si>
+    <t>Lets Input Target OK</t>
+  </si>
+  <si>
+    <t>NY input Result Date</t>
+  </si>
+  <si>
+    <t>Lets Input FA Result Date</t>
+  </si>
+  <si>
+    <t>Deciption</t>
+  </si>
+  <si>
+    <t>NY input Target OK date</t>
+  </si>
+  <si>
+    <t>NY input FA actual Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,8 +926,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,8 +962,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -847,11 +977,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -863,10 +1008,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1159,15 +1319,15 @@
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1185,7 +1345,7 @@
       <c r="E2" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>255</v>
       </c>
       <c r="G2" t="s">
@@ -1208,7 +1368,7 @@
       <c r="E3" t="s">
         <v>253</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1228,7 +1388,7 @@
       <c r="E4" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1248,7 +1408,7 @@
       <c r="E5" t="s">
         <v>253</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1268,7 +1428,7 @@
       <c r="E6" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1285,7 +1445,7 @@
       <c r="D7" t="s">
         <v>234</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -1302,7 +1462,7 @@
       <c r="D8" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -1319,7 +1479,7 @@
       <c r="D9" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -1336,7 +1496,7 @@
       <c r="D10" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -1356,7 +1516,7 @@
       <c r="E11" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1567,7 +1727,7 @@
       <c r="E25" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1587,7 +1747,7 @@
       <c r="E26" t="s">
         <v>253</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1607,7 +1767,7 @@
       <c r="E27" t="s">
         <v>253</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1624,7 +1784,7 @@
       <c r="D28" t="s">
         <v>238</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -1641,7 +1801,7 @@
       <c r="D29" t="s">
         <v>238</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -1658,7 +1818,7 @@
       <c r="D30" t="s">
         <v>238</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -1678,7 +1838,7 @@
       <c r="E31" t="s">
         <v>253</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1698,7 +1858,7 @@
       <c r="E32" t="s">
         <v>253</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1718,7 +1878,7 @@
       <c r="E33" t="s">
         <v>253</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3107,12 +3267,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="73.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>